--- a/data/trans_orig/P14A22-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A22-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{929D18E9-99B9-406F-A6FD-10E13A8EE87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EE8DBC1-2CB6-4965-892C-EA5C6F24765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D604CA5-B795-4900-B7FF-A2EA64727DE5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4759E28-DC0E-4302-95F5-7FA4C46E0A24}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -126,10 +126,10 @@
     <t>68,08%</t>
   </si>
   <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>71,99%</t>
@@ -141,19 +141,19 @@
     <t>69,75%</t>
   </si>
   <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>31,92%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>28,01%</t>
@@ -165,10 +165,10 @@
     <t>30,25%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -177,7 +177,7 @@
     <t>73,93%</t>
   </si>
   <si>
-    <t>22,03%</t>
+    <t>21,9%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -186,13 +186,13 @@
     <t>83,94%</t>
   </si>
   <si>
-    <t>52,11%</t>
+    <t>45,57%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>77,97%</t>
+    <t>78,1%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -201,7 +201,7 @@
     <t>16,06%</t>
   </si>
   <si>
-    <t>47,89%</t>
+    <t>54,43%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -210,52 +210,52 @@
     <t>87,88%</t>
   </si>
   <si>
-    <t>42,85%</t>
+    <t>43,43%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>44,7%</t>
+    <t>45,78%</t>
   </si>
   <si>
     <t>88,64%</t>
   </si>
   <si>
-    <t>63,59%</t>
+    <t>63,53%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>57,15%</t>
+    <t>56,57%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>55,3%</t>
+    <t>54,22%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>36,41%</t>
+    <t>36,47%</t>
   </si>
   <si>
     <t>81,32%</t>
   </si>
   <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>87,8%</t>
   </si>
   <si>
-    <t>67,04%</t>
+    <t>70,64%</t>
   </si>
   <si>
     <t>96,16%</t>
@@ -264,19 +264,19 @@
     <t>84,16%</t>
   </si>
   <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
   </si>
   <si>
     <t>12,2%</t>
@@ -285,16 +285,16 @@
     <t>3,84%</t>
   </si>
   <si>
-    <t>32,96%</t>
+    <t>29,36%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -859,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9DA3A1-EF91-4FFC-BE2B-BDD6BCC82A9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36072DF4-1861-4FB5-8CE4-5350F9D5D211}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1922,7 +1922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC75E529-2922-4030-825B-F55E53D7BC01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3D8CB-55FB-487D-A4E6-79D2484A308D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A22-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A22-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EE8DBC1-2CB6-4965-892C-EA5C6F24765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FDDAFA2-AA03-44D5-BDE4-F2FD4CBCEC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4759E28-DC0E-4302-95F5-7FA4C46E0A24}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F2EB5A2-9250-4CF2-9AC0-DC99E29FFDCB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="133">
   <si>
     <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2012 (Tasa respuesta: 0,81%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -99,7 +99,7 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -120,88 +120,82 @@
     <t>18,74%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>68,08%</t>
   </si>
   <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>28,09%</t>
+    <t>28,94%</t>
   </si>
   <si>
     <t>69,75%</t>
   </si>
   <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>31,92%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>71,91%</t>
+    <t>71,06%</t>
   </si>
   <si>
     <t>30,25%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
     <t>63,75%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>45,57%</t>
+    <t>49,0%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>78,1%</t>
-  </si>
-  <si>
     <t>36,25%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>54,43%</t>
+    <t>51,0%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -210,97 +204,91 @@
     <t>87,88%</t>
   </si>
   <si>
-    <t>43,43%</t>
+    <t>43,08%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>45,78%</t>
+    <t>46,54%</t>
   </si>
   <si>
     <t>88,64%</t>
   </si>
   <si>
-    <t>63,53%</t>
+    <t>63,19%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>56,57%</t>
+    <t>56,92%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>54,22%</t>
+    <t>53,46%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>36,47%</t>
+    <t>36,81%</t>
   </si>
   <si>
     <t>81,32%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>87,8%</t>
   </si>
   <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>72,71%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>27,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2015 (Tasa respuesta: 0,59%)</t>
+    <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2016 (Tasa respuesta: 0,59%)</t>
   </si>
   <si>
     <t>42,38%</t>
@@ -315,49 +303,49 @@
     <t>81,5%</t>
   </si>
   <si>
-    <t>19,62%</t>
+    <t>20,29%</t>
   </si>
   <si>
     <t>87,83%</t>
   </si>
   <si>
-    <t>37,43%</t>
+    <t>46,35%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>80,38%</t>
+    <t>79,71%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>62,57%</t>
+    <t>53,65%</t>
   </si>
   <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>43,8%</t>
+    <t>45,84%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>61,07%</t>
+    <t>61,11%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>56,2%</t>
+    <t>54,16%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>38,93%</t>
+    <t>38,89%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -369,85 +357,85 @@
     <t>88,01%</t>
   </si>
   <si>
-    <t>49,25%</t>
+    <t>50,83%</t>
   </si>
   <si>
     <t>84,01%</t>
   </si>
   <si>
-    <t>36,97%</t>
+    <t>37,12%</t>
   </si>
   <si>
     <t>85,87%</t>
   </si>
   <si>
-    <t>61,0%</t>
+    <t>58,09%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>50,75%</t>
+    <t>49,17%</t>
   </si>
   <si>
     <t>15,99%</t>
   </si>
   <si>
-    <t>63,03%</t>
+    <t>62,88%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>39,0%</t>
+    <t>41,91%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>62,62%</t>
+    <t>64,76%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>37,38%</t>
+    <t>35,24%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
 </sst>
 </file>
@@ -859,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36072DF4-1861-4FB5-8CE4-5350F9D5D211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F6AA54-F75C-47B0-9303-804FC4F47D74}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1451,7 +1439,7 @@
         <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -1466,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1478,10 +1466,10 @@
         <v>9815</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -1499,13 +1487,13 @@
         <v>1879</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1520,7 +1508,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1529,13 +1517,13 @@
         <v>1878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1591,7 +1579,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1603,10 +1591,10 @@
         <v>7143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1618,10 +1606,10 @@
         <v>8170</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -1633,10 +1621,10 @@
         <v>15314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1654,13 +1642,13 @@
         <v>986</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1669,13 +1657,13 @@
         <v>977</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1684,13 +1672,13 @@
         <v>1962</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,13 +1746,13 @@
         <v>26487</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -1773,13 +1761,13 @@
         <v>22283</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -1788,13 +1776,13 @@
         <v>48770</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,13 +1797,13 @@
         <v>6085</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -1824,13 +1812,13 @@
         <v>3096</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -1839,13 +1827,13 @@
         <v>9180</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,7 +1889,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +1910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3D8CB-55FB-487D-A4E6-79D2484A308D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01620ADB-A2B4-46E9-BC30-9946F8AE109A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1939,7 +1927,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2046,7 +2034,7 @@
         <v>794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>16</v>
@@ -2059,13 +2047,13 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2074,7 +2062,7 @@
         <v>794</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>16</v>
@@ -2095,7 +2083,7 @@
         <v>1079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>16</v>
@@ -2108,13 +2096,13 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2123,7 +2111,7 @@
         <v>1079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
@@ -2157,13 +2145,13 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -2195,10 +2183,10 @@
         <v>3532</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2225,10 +2213,10 @@
         <v>5782</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2246,13 +2234,13 @@
         <v>801</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2276,13 +2264,13 @@
         <v>802</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,10 +2353,10 @@
         <v>7656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2380,10 +2368,10 @@
         <v>10660</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2416,13 +2404,13 @@
         <v>1020</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2431,13 +2419,13 @@
         <v>1020</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,7 +2496,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2538,7 +2526,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2562,7 +2550,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2592,7 +2580,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,7 +2636,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2660,10 +2648,10 @@
         <v>6593</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -2675,10 +2663,10 @@
         <v>7226</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -2690,10 +2678,10 @@
         <v>13819</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -2711,13 +2699,13 @@
         <v>898</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2726,13 +2714,13 @@
         <v>1376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2741,13 +2729,13 @@
         <v>2274</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2803,13 @@
         <v>18789</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -2830,10 +2818,10 @@
         <v>18404</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -2845,13 +2833,13 @@
         <v>37194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2854,13 @@
         <v>2779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2881,13 +2869,13 @@
         <v>2396</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -2896,13 +2884,13 @@
         <v>5174</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,7 +2946,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
